--- a/compare_cneo_scer/Data/Selected_GO_Terms/new GO terms list.xlsx
+++ b/compare_cneo_scer/Data/Selected_GO_Terms/new GO terms list.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GO analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PostDoc\2019\Fungal_Drug_Synergy\compare_cneo_scer\Data\Selected_GO_Terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C20C1-E9BB-44A5-B371-E1442A253246}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7F6EC9-A71C-4A43-8E94-75FE65F62A9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="14355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_of_selected_GO_terms" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>GO:0008154</t>
   </si>
@@ -178,92 +177,101 @@
     <t>gobpid</t>
   </si>
   <si>
-    <t>cell redox homeostasis</t>
-  </si>
-  <si>
     <t>GO:0045454</t>
   </si>
   <si>
-    <t>cellular carbohydrate metabolic process</t>
-  </si>
-  <si>
     <t>GO:0044262</t>
   </si>
   <si>
-    <t>generation of precursor metabolites and energy</t>
-  </si>
-  <si>
-    <t>oxidoreduction coenzyme metabolic process</t>
-  </si>
-  <si>
     <t>GO:0006733</t>
   </si>
   <si>
-    <t>tricarboxylic acid metabolic process</t>
-  </si>
-  <si>
     <t>GO:0072350</t>
   </si>
   <si>
-    <t>aromatic amino acid family biosynthetic process</t>
-  </si>
-  <si>
     <t>GO:0009073</t>
   </si>
   <si>
-    <t>cellular amino acid biosynthetic process</t>
-  </si>
-  <si>
     <t>GO:0008652</t>
   </si>
   <si>
-    <t>nucleobase-containing small molecule metabolic process</t>
-  </si>
-  <si>
     <t>GO:0055086</t>
   </si>
   <si>
-    <t>pyridine nucleotide metabolic process</t>
-  </si>
-  <si>
     <t>GO:0019362</t>
   </si>
   <si>
-    <t>transition metal ion transport</t>
-  </si>
-  <si>
     <t>GO:0000041</t>
   </si>
   <si>
-    <t>copper ion transport</t>
-  </si>
-  <si>
     <t>GO:0006825</t>
   </si>
   <si>
-    <t>iron ion homeostasis</t>
-  </si>
-  <si>
     <t>GO:0055072</t>
   </si>
   <si>
-    <t>iron-sulfur cluster assembly</t>
-  </si>
-  <si>
-    <t>siderophore transport</t>
-  </si>
-  <si>
-    <t>transition metal ion homeostasis</t>
-  </si>
-  <si>
     <t>GO:0055076</t>
+  </si>
+  <si>
+    <t>GO:0006915</t>
+  </si>
+  <si>
+    <t>GO:0007039</t>
+  </si>
+  <si>
+    <t>GO:0036503</t>
+  </si>
+  <si>
+    <t>GO:0043161</t>
+  </si>
+  <si>
+    <t>GO:0006620</t>
+  </si>
+  <si>
+    <t>GO:0002181</t>
+  </si>
+  <si>
+    <t>GO:0042254</t>
+  </si>
+  <si>
+    <t>GO:0002183</t>
+  </si>
+  <si>
+    <t>GO:0042743</t>
+  </si>
+  <si>
+    <t>GO:0035617</t>
+  </si>
+  <si>
+    <t>GO:0071218</t>
+  </si>
+  <si>
+    <t>GO:0034976</t>
+  </si>
+  <si>
+    <t>GO:0097501</t>
+  </si>
+  <si>
+    <t>GO:0000196</t>
+  </si>
+  <si>
+    <t>GO:0051403</t>
+  </si>
+  <si>
+    <t>GO:0070413</t>
+  </si>
+  <si>
+    <t>GO:0000226</t>
+  </si>
+  <si>
+    <t>GO:0016125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -279,12 +287,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -316,14 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB50BEE-FF7F-4969-82C5-B4BF90A087C9}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +777,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -786,7 +785,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>45</v>
@@ -794,7 +793,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>45</v>
@@ -802,7 +801,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -849,16 +848,16 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
+      <c r="A17" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
@@ -866,7 +865,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -874,7 +873,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
@@ -882,15 +881,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
+      <c r="A22" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -898,7 +897,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
@@ -906,7 +905,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
@@ -914,7 +913,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
@@ -922,23 +921,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
+      <c r="A27" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>39</v>
@@ -946,7 +945,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -954,7 +953,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>39</v>
@@ -962,7 +961,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -970,387 +969,318 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
+      <c r="A33" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
+      <c r="A34" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
+      <c r="A35" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>14</v>
+      <c r="A36" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
+      <c r="A37" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
+      <c r="A38" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
+      <c r="A39" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>31</v>
+      <c r="A44" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>66</v>
+      <c r="A46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>68</v>
+      <c r="A47" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>70</v>
+      <c r="A48" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>74</v>
+      <c r="A49" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C947630-5280-42FB-9B3F-1E3EBFADDA65}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="str">
-        <f>VLOOKUP(B1,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Energy related</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(B2,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Energy related</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(B3,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Energy related</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Energy related</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Energy related</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Nucleic acid and amino acid related</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Nucleic acid and amino acid related</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Nucleic acid and amino acid related</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Nucleic acid and amino acid related</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(B10,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="str">
-        <f>VLOOKUP(B14,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="str">
-        <f>VLOOKUP(B15,list_of_selected_GO_terms!$A$1:$B$54,2,FALSE)</f>
-        <v>Metal related</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>